--- a/resources/ExcelTemplate.xlsx
+++ b/resources/ExcelTemplate.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="py_run" sheetId="1" r:id="rId1"/>
+    <sheet name="py_param" sheetId="2" r:id="rId2"/>
+    <sheet name="py_input" sheetId="3" r:id="rId3"/>
+    <sheet name="py_output" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -333,9 +336,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
